--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pltp-Abca1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pltp-Abca1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.586443</v>
+        <v>14.926876</v>
       </c>
       <c r="H2">
-        <v>29.172886</v>
+        <v>29.853752</v>
       </c>
       <c r="I2">
-        <v>0.06269856395935743</v>
+        <v>0.1776592725673693</v>
       </c>
       <c r="J2">
-        <v>0.04278481116285238</v>
+        <v>0.1274273274258591</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>75.87285199999999</v>
+        <v>28.627593</v>
       </c>
       <c r="N2">
-        <v>151.745704</v>
+        <v>57.255186</v>
       </c>
       <c r="O2">
-        <v>0.2226476675113111</v>
+        <v>0.1437468525899733</v>
       </c>
       <c r="P2">
-        <v>0.1627885392821437</v>
+        <v>0.102319567864596</v>
       </c>
       <c r="Q2">
-        <v>1106.715030945436</v>
+        <v>427.320530889468</v>
       </c>
       <c r="R2">
-        <v>4426.860123781744</v>
+        <v>1709.282123557872</v>
       </c>
       <c r="S2">
-        <v>0.01395968902185968</v>
+        <v>0.02553796126498353</v>
       </c>
       <c r="T2">
-        <v>0.006964876912663096</v>
+        <v>0.01303830907635429</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.586443</v>
+        <v>14.926876</v>
       </c>
       <c r="H3">
-        <v>29.172886</v>
+        <v>29.853752</v>
       </c>
       <c r="I3">
-        <v>0.06269856395935743</v>
+        <v>0.1776592725673693</v>
       </c>
       <c r="J3">
-        <v>0.04278481116285238</v>
+        <v>0.1274273274258591</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>26.024311</v>
       </c>
       <c r="O3">
-        <v>0.02545597443619208</v>
+        <v>0.04355835757332236</v>
       </c>
       <c r="P3">
-        <v>0.02791815163027104</v>
+        <v>0.04650751209670077</v>
       </c>
       <c r="Q3">
-        <v>126.5340430052577</v>
+        <v>129.4872210941453</v>
       </c>
       <c r="R3">
-        <v>759.204258031546</v>
+        <v>776.9233265648719</v>
       </c>
       <c r="S3">
-        <v>0.001596053041335357</v>
+        <v>0.007738546120705813</v>
       </c>
       <c r="T3">
-        <v>0.001194472845517026</v>
+        <v>0.005926327971708391</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.586443</v>
+        <v>14.926876</v>
       </c>
       <c r="H4">
-        <v>29.172886</v>
+        <v>29.853752</v>
       </c>
       <c r="I4">
-        <v>0.06269856395935743</v>
+        <v>0.1776592725673693</v>
       </c>
       <c r="J4">
-        <v>0.04278481116285238</v>
+        <v>0.1274273274258591</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>92.90337233333334</v>
+        <v>40.48525233333334</v>
       </c>
       <c r="N4">
-        <v>278.710117</v>
+        <v>121.455757</v>
       </c>
       <c r="O4">
-        <v>0.2726234563312783</v>
+        <v>0.2032873528426766</v>
       </c>
       <c r="P4">
-        <v>0.2989924039601503</v>
+        <v>0.217051090724033</v>
       </c>
       <c r="Q4">
-        <v>1355.129745047944</v>
+        <v>604.3183414083774</v>
       </c>
       <c r="R4">
-        <v>8130.778470287663</v>
+        <v>3625.910048450264</v>
       </c>
       <c r="S4">
-        <v>0.01709309921360774</v>
+        <v>0.03611588322817607</v>
       </c>
       <c r="T4">
-        <v>0.0127923335425623</v>
+        <v>0.0276582404058312</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.586443</v>
+        <v>14.926876</v>
       </c>
       <c r="H5">
-        <v>29.172886</v>
+        <v>29.853752</v>
       </c>
       <c r="I5">
-        <v>0.06269856395935743</v>
+        <v>0.1776592725673693</v>
       </c>
       <c r="J5">
-        <v>0.04278481116285238</v>
+        <v>0.1274273274258591</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.2888615</v>
+        <v>9.2587045</v>
       </c>
       <c r="N5">
-        <v>28.577723</v>
+        <v>18.517409</v>
       </c>
       <c r="O5">
-        <v>0.04193043493827243</v>
+        <v>0.04649044825164388</v>
       </c>
       <c r="P5">
-        <v>0.0306573804763509</v>
+        <v>0.03309208159505379</v>
       </c>
       <c r="Q5">
-        <v>208.4236638046445</v>
+        <v>138.203533992142</v>
       </c>
       <c r="R5">
-        <v>833.6946552185781</v>
+        <v>552.8141359685681</v>
       </c>
       <c r="S5">
-        <v>0.00262897805682095</v>
+        <v>0.008259459217717979</v>
       </c>
       <c r="T5">
-        <v>0.001311670234428391</v>
+        <v>0.004216835516616163</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.586443</v>
+        <v>14.926876</v>
       </c>
       <c r="H6">
-        <v>29.172886</v>
+        <v>29.853752</v>
       </c>
       <c r="I6">
-        <v>0.06269856395935743</v>
+        <v>0.1776592725673693</v>
       </c>
       <c r="J6">
-        <v>0.04278481116285238</v>
+        <v>0.1274273274258591</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>35.932115</v>
+        <v>30.61558333333333</v>
       </c>
       <c r="N6">
-        <v>107.796345</v>
+        <v>91.84675</v>
       </c>
       <c r="O6">
-        <v>0.1054422152669073</v>
+        <v>0.1537290873309786</v>
       </c>
       <c r="P6">
-        <v>0.1156408984237473</v>
+        <v>0.1641374419736858</v>
       </c>
       <c r="Q6">
-        <v>524.1217473169451</v>
+        <v>456.9950160843333</v>
       </c>
       <c r="R6">
-        <v>3144.73048390167</v>
+        <v>2741.970096506</v>
       </c>
       <c r="S6">
-        <v>0.006611075477928518</v>
+        <v>0.02731139782766724</v>
       </c>
       <c r="T6">
-        <v>0.00494767400176262</v>
+        <v>0.0209155955612238</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.586443</v>
+        <v>14.926876</v>
       </c>
       <c r="H7">
-        <v>29.172886</v>
+        <v>29.853752</v>
       </c>
       <c r="I7">
-        <v>0.06269856395935743</v>
+        <v>0.1776592725673693</v>
       </c>
       <c r="J7">
-        <v>0.04278481116285238</v>
+        <v>0.1274273274258591</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>113.103447</v>
+        <v>81.49093000000001</v>
       </c>
       <c r="N7">
-        <v>339.310341</v>
+        <v>244.47279</v>
       </c>
       <c r="O7">
-        <v>0.3319002515160389</v>
+        <v>0.4091879014114052</v>
       </c>
       <c r="P7">
-        <v>0.3640026262273368</v>
+        <v>0.4368923057459307</v>
       </c>
       <c r="Q7">
-        <v>1649.776982769021</v>
+        <v>1216.40500723468</v>
       </c>
       <c r="R7">
-        <v>9898.661896614127</v>
+        <v>7298.430043408081</v>
       </c>
       <c r="S7">
-        <v>0.02080966914780518</v>
+        <v>0.07269602490811869</v>
       </c>
       <c r="T7">
-        <v>0.01557378362591894</v>
+        <v>0.05567201889412525</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>4.597943</v>
       </c>
       <c r="I8">
-        <v>0.006587953468550209</v>
+        <v>0.01824153088443127</v>
       </c>
       <c r="J8">
-        <v>0.006743320595451507</v>
+        <v>0.01962579404245191</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>75.87285199999999</v>
+        <v>28.627593</v>
       </c>
       <c r="N8">
-        <v>151.745704</v>
+        <v>57.255186</v>
       </c>
       <c r="O8">
-        <v>0.2226476675113111</v>
+        <v>0.1437468525899733</v>
       </c>
       <c r="P8">
-        <v>0.1627885392821437</v>
+        <v>0.102319567864596</v>
       </c>
       <c r="Q8">
-        <v>116.2863495811453</v>
+        <v>43.876013613733</v>
       </c>
       <c r="R8">
-        <v>697.7180974868719</v>
+        <v>263.256081682398</v>
       </c>
       <c r="S8">
-        <v>0.001466792473445755</v>
+        <v>0.002622162651059788</v>
       </c>
       <c r="T8">
-        <v>0.001097735309644747</v>
+        <v>0.002008102765423242</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>4.597943</v>
       </c>
       <c r="I9">
-        <v>0.006587953468550209</v>
+        <v>0.01824153088443127</v>
       </c>
       <c r="J9">
-        <v>0.006743320595451507</v>
+        <v>0.01962579404245191</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>26.024311</v>
       </c>
       <c r="O9">
-        <v>0.02545597443619208</v>
+        <v>0.04355835757332236</v>
       </c>
       <c r="P9">
-        <v>0.02791815163027104</v>
+        <v>0.04650751209670077</v>
       </c>
       <c r="Q9">
         <v>13.29536651025255</v>
@@ -1013,10 +1013,10 @@
         <v>119.658298592273</v>
       </c>
       <c r="S9">
-        <v>0.0001677027750822371</v>
+        <v>0.0007945711249488607</v>
       </c>
       <c r="T9">
-        <v>0.0001882610468753448</v>
+        <v>0.0009127468538366901</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>4.597943</v>
       </c>
       <c r="I10">
-        <v>0.006587953468550209</v>
+        <v>0.01824153088443127</v>
       </c>
       <c r="J10">
-        <v>0.006743320595451507</v>
+        <v>0.01962579404245191</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>92.90337233333334</v>
+        <v>40.48525233333334</v>
       </c>
       <c r="N10">
-        <v>278.710117</v>
+        <v>121.455757</v>
       </c>
       <c r="O10">
-        <v>0.2726234563312783</v>
+        <v>0.2032873528426766</v>
       </c>
       <c r="P10">
-        <v>0.2989924039601503</v>
+        <v>0.217051090724033</v>
       </c>
       <c r="Q10">
-        <v>142.3881368321479</v>
+        <v>62.04962752309456</v>
       </c>
       <c r="R10">
-        <v>1281.493231489331</v>
+        <v>558.446647707851</v>
       </c>
       <c r="S10">
-        <v>0.001796030644745791</v>
+        <v>0.003708272525293963</v>
       </c>
       <c r="T10">
-        <v>0.002016201635508038</v>
+        <v>0.004259800003239416</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>4.597943</v>
       </c>
       <c r="I11">
-        <v>0.006587953468550209</v>
+        <v>0.01824153088443127</v>
       </c>
       <c r="J11">
-        <v>0.006743320595451507</v>
+        <v>0.01962579404245191</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.2888615</v>
+        <v>9.2587045</v>
       </c>
       <c r="N11">
-        <v>28.577723</v>
+        <v>18.517409</v>
       </c>
       <c r="O11">
-        <v>0.04193043493827243</v>
+        <v>0.04649044825164388</v>
       </c>
       <c r="P11">
-        <v>0.0306573804763509</v>
+        <v>0.03309208159505379</v>
       </c>
       <c r="Q11">
-        <v>21.89979023729817</v>
+        <v>14.19033184828117</v>
       </c>
       <c r="R11">
-        <v>131.398741423789</v>
+        <v>85.141991089687</v>
       </c>
       <c r="S11">
-        <v>0.0002762357542894107</v>
+        <v>0.0008480569476134158</v>
       </c>
       <c r="T11">
-        <v>0.00020673254516877</v>
+        <v>0.0006494583778205391</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>4.597943</v>
       </c>
       <c r="I12">
-        <v>0.006587953468550209</v>
+        <v>0.01824153088443127</v>
       </c>
       <c r="J12">
-        <v>0.006743320595451507</v>
+        <v>0.01962579404245191</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>35.932115</v>
+        <v>30.61558333333333</v>
       </c>
       <c r="N12">
-        <v>107.796345</v>
+        <v>91.84675</v>
       </c>
       <c r="O12">
-        <v>0.1054422152669073</v>
+        <v>0.1537290873309786</v>
       </c>
       <c r="P12">
-        <v>0.1156408984237473</v>
+        <v>0.1641374419736858</v>
       </c>
       <c r="Q12">
-        <v>55.07127221314834</v>
+        <v>46.92290235947222</v>
       </c>
       <c r="R12">
-        <v>495.641449918335</v>
+        <v>422.30612123525</v>
       </c>
       <c r="S12">
-        <v>0.0006946484077992394</v>
+        <v>0.002804253894383478</v>
       </c>
       <c r="T12">
-        <v>0.0007798036520173708</v>
+        <v>0.003221327630830458</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>4.597943</v>
       </c>
       <c r="I13">
-        <v>0.006587953468550209</v>
+        <v>0.01824153088443127</v>
       </c>
       <c r="J13">
-        <v>0.006743320595451507</v>
+        <v>0.01962579404245191</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>113.103447</v>
+        <v>81.49093000000001</v>
       </c>
       <c r="N13">
-        <v>339.310341</v>
+        <v>244.47279</v>
       </c>
       <c r="O13">
-        <v>0.3319002515160389</v>
+        <v>0.4091879014114052</v>
       </c>
       <c r="P13">
-        <v>0.3640026262273368</v>
+        <v>0.4368923057459307</v>
       </c>
       <c r="Q13">
-        <v>173.347734136507</v>
+        <v>124.8968837189967</v>
       </c>
       <c r="R13">
-        <v>1560.129607228563</v>
+        <v>1124.07195347097</v>
       </c>
       <c r="S13">
-        <v>0.002186543413187775</v>
+        <v>0.007464213741131767</v>
       </c>
       <c r="T13">
-        <v>0.002454586406237237</v>
+        <v>0.008574358411301565</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>70.92193466666666</v>
+        <v>23.28463033333334</v>
       </c>
       <c r="H14">
-        <v>212.765804</v>
+        <v>69.853891</v>
       </c>
       <c r="I14">
-        <v>0.3048518036110221</v>
+        <v>0.2771330375505299</v>
       </c>
       <c r="J14">
-        <v>0.3120412819647826</v>
+        <v>0.2981633477904979</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>75.87285199999999</v>
+        <v>28.627593</v>
       </c>
       <c r="N14">
-        <v>151.745704</v>
+        <v>57.255186</v>
       </c>
       <c r="O14">
-        <v>0.2226476675113111</v>
+        <v>0.1437468525899733</v>
       </c>
       <c r="P14">
-        <v>0.1627885392821437</v>
+        <v>0.102319567864596</v>
       </c>
       <c r="Q14">
-        <v>5381.049452517668</v>
+        <v>666.5829203381211</v>
       </c>
       <c r="R14">
-        <v>32286.29671510601</v>
+        <v>3999.497522028727</v>
       </c>
       <c r="S14">
-        <v>0.06787454301061034</v>
+        <v>0.03983700189658755</v>
       </c>
       <c r="T14">
-        <v>0.05079674448677451</v>
+        <v>0.030507944898985</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>70.92193466666666</v>
+        <v>23.28463033333334</v>
       </c>
       <c r="H15">
-        <v>212.765804</v>
+        <v>69.853891</v>
       </c>
       <c r="I15">
-        <v>0.3048518036110221</v>
+        <v>0.2771330375505299</v>
       </c>
       <c r="J15">
-        <v>0.3120412819647826</v>
+        <v>0.2981633477904979</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>26.024311</v>
       </c>
       <c r="O15">
-        <v>0.02545597443619208</v>
+        <v>0.04355835757332236</v>
       </c>
       <c r="P15">
-        <v>0.02791815163027104</v>
+        <v>0.04650751209670077</v>
       </c>
       <c r="Q15">
-        <v>615.2314948290048</v>
+        <v>201.9888204382335</v>
       </c>
       <c r="R15">
-        <v>5537.083453461043</v>
+        <v>1817.899383944101</v>
       </c>
       <c r="S15">
-        <v>0.007760299719549228</v>
+        <v>0.01207145994500695</v>
       </c>
       <c r="T15">
-        <v>0.008711615824796961</v>
+        <v>0.01386683550415938</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>70.92193466666666</v>
+        <v>23.28463033333334</v>
       </c>
       <c r="H16">
-        <v>212.765804</v>
+        <v>69.853891</v>
       </c>
       <c r="I16">
-        <v>0.3048518036110221</v>
+        <v>0.2771330375505299</v>
       </c>
       <c r="J16">
-        <v>0.3120412819647826</v>
+        <v>0.2981633477904979</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>92.90337233333334</v>
+        <v>40.48525233333334</v>
       </c>
       <c r="N16">
-        <v>278.710117</v>
+        <v>121.455757</v>
       </c>
       <c r="O16">
-        <v>0.2726234563312783</v>
+        <v>0.2032873528426766</v>
       </c>
       <c r="P16">
-        <v>0.2989924039601503</v>
+        <v>0.217051090724033</v>
       </c>
       <c r="Q16">
-        <v>6588.886902937674</v>
+        <v>942.6841345333876</v>
       </c>
       <c r="R16">
-        <v>59299.98212643906</v>
+        <v>8484.157210800488</v>
       </c>
       <c r="S16">
-        <v>0.08310975236926091</v>
+        <v>0.05633764158889731</v>
       </c>
       <c r="T16">
-        <v>0.09329797302945744</v>
+        <v>0.06471667985185676</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>70.92193466666666</v>
+        <v>23.28463033333334</v>
       </c>
       <c r="H17">
-        <v>212.765804</v>
+        <v>69.853891</v>
       </c>
       <c r="I17">
-        <v>0.3048518036110221</v>
+        <v>0.2771330375505299</v>
       </c>
       <c r="J17">
-        <v>0.3120412819647826</v>
+        <v>0.2981633477904979</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.2888615</v>
+        <v>9.2587045</v>
       </c>
       <c r="N17">
-        <v>28.577723</v>
+        <v>18.517409</v>
       </c>
       <c r="O17">
-        <v>0.04193043493827243</v>
+        <v>0.04649044825164388</v>
       </c>
       <c r="P17">
-        <v>0.0306573804763509</v>
+        <v>0.03309208159505379</v>
       </c>
       <c r="Q17">
-        <v>1013.393701764049</v>
+        <v>215.5855116480699</v>
       </c>
       <c r="R17">
-        <v>6080.362210584291</v>
+        <v>1293.513069888419</v>
       </c>
       <c r="S17">
-        <v>0.01278256871712697</v>
+        <v>0.01288403914106379</v>
       </c>
       <c r="T17">
-        <v>0.009566368305522634</v>
+        <v>0.009866845833737557</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>70.92193466666666</v>
+        <v>23.28463033333334</v>
       </c>
       <c r="H18">
-        <v>212.765804</v>
+        <v>69.853891</v>
       </c>
       <c r="I18">
-        <v>0.3048518036110221</v>
+        <v>0.2771330375505299</v>
       </c>
       <c r="J18">
-        <v>0.3120412819647826</v>
+        <v>0.2981633477904979</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>35.932115</v>
+        <v>30.61558333333333</v>
       </c>
       <c r="N18">
-        <v>107.796345</v>
+        <v>91.84675</v>
       </c>
       <c r="O18">
-        <v>0.1054422152669073</v>
+        <v>0.1537290873309786</v>
       </c>
       <c r="P18">
-        <v>0.1156408984237473</v>
+        <v>0.1641374419736858</v>
       </c>
       <c r="Q18">
-        <v>2548.375112465153</v>
+        <v>712.8725403560279</v>
       </c>
       <c r="R18">
-        <v>22935.37601218638</v>
+        <v>6415.852863204251</v>
       </c>
       <c r="S18">
-        <v>0.03214424950085833</v>
+        <v>0.04260340893190477</v>
       </c>
       <c r="T18">
-        <v>0.03608473419170531</v>
+        <v>0.04893976919664274</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>70.92193466666666</v>
+        <v>23.28463033333334</v>
       </c>
       <c r="H19">
-        <v>212.765804</v>
+        <v>69.853891</v>
       </c>
       <c r="I19">
-        <v>0.3048518036110221</v>
+        <v>0.2771330375505299</v>
       </c>
       <c r="J19">
-        <v>0.3120412819647826</v>
+        <v>0.2981633477904979</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>113.103447</v>
+        <v>81.49093000000001</v>
       </c>
       <c r="N19">
-        <v>339.310341</v>
+        <v>244.47279</v>
       </c>
       <c r="O19">
-        <v>0.3319002515160389</v>
+        <v>0.4091879014114052</v>
       </c>
       <c r="P19">
-        <v>0.3640026262273368</v>
+        <v>0.4368923057459307</v>
       </c>
       <c r="Q19">
-        <v>8021.515278708795</v>
+        <v>1897.486180569544</v>
       </c>
       <c r="R19">
-        <v>72193.63750837915</v>
+        <v>17077.37562512589</v>
       </c>
       <c r="S19">
-        <v>0.1011803902936163</v>
+        <v>0.1133994860470695</v>
       </c>
       <c r="T19">
-        <v>0.1135838461265258</v>
+        <v>0.1302652725051165</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.494014</v>
+        <v>2.851567</v>
       </c>
       <c r="H20">
-        <v>2.988028</v>
+        <v>5.703134</v>
       </c>
       <c r="I20">
-        <v>0.006421889993000722</v>
+        <v>0.03393927295283459</v>
       </c>
       <c r="J20">
-        <v>0.004382227172495565</v>
+        <v>0.02434317547662182</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>75.87285199999999</v>
+        <v>28.627593</v>
       </c>
       <c r="N20">
-        <v>151.745704</v>
+        <v>57.255186</v>
       </c>
       <c r="O20">
-        <v>0.2226476675113111</v>
+        <v>0.1437468525899733</v>
       </c>
       <c r="P20">
-        <v>0.1627885392821437</v>
+        <v>0.102319567864596</v>
       </c>
       <c r="Q20">
-        <v>113.355103107928</v>
+        <v>81.63349948823101</v>
       </c>
       <c r="R20">
-        <v>453.420412431712</v>
+        <v>326.533997952924</v>
       </c>
       <c r="S20">
-        <v>0.00142981882795584</v>
+        <v>0.004878663666161982</v>
       </c>
       <c r="T20">
-        <v>0.000713376360213072</v>
+        <v>0.002490783195219976</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.494014</v>
+        <v>2.851567</v>
       </c>
       <c r="H21">
-        <v>2.988028</v>
+        <v>5.703134</v>
       </c>
       <c r="I21">
-        <v>0.006421889993000722</v>
+        <v>0.03393927295283459</v>
       </c>
       <c r="J21">
-        <v>0.004382227172495565</v>
+        <v>0.02434317547662182</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>26.024311</v>
       </c>
       <c r="O21">
-        <v>0.02545597443619208</v>
+        <v>0.04355835757332236</v>
       </c>
       <c r="P21">
-        <v>0.02791815163027104</v>
+        <v>0.04650751209670077</v>
       </c>
       <c r="Q21">
-        <v>12.96022832478467</v>
+        <v>24.73668881511233</v>
       </c>
       <c r="R21">
-        <v>77.76136994870799</v>
+        <v>148.420132890674</v>
       </c>
       <c r="S21">
-        <v>0.0001634754674938641</v>
+        <v>0.001478338987058157</v>
       </c>
       <c r="T21">
-        <v>0.0001223436826800251</v>
+        <v>0.001132140527951099</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.494014</v>
+        <v>2.851567</v>
       </c>
       <c r="H22">
-        <v>2.988028</v>
+        <v>5.703134</v>
       </c>
       <c r="I22">
-        <v>0.006421889993000722</v>
+        <v>0.03393927295283459</v>
       </c>
       <c r="J22">
-        <v>0.004382227172495565</v>
+        <v>0.02434317547662182</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>92.90337233333334</v>
+        <v>40.48525233333334</v>
       </c>
       <c r="N22">
-        <v>278.710117</v>
+        <v>121.455757</v>
       </c>
       <c r="O22">
-        <v>0.2726234563312783</v>
+        <v>0.2032873528426766</v>
       </c>
       <c r="P22">
-        <v>0.2989924039601503</v>
+        <v>0.217051090724033</v>
       </c>
       <c r="Q22">
-        <v>138.7989389132127</v>
+        <v>115.4464095404063</v>
       </c>
       <c r="R22">
-        <v>832.7936334792761</v>
+        <v>692.6784572424381</v>
       </c>
       <c r="S22">
-        <v>0.001750757846071105</v>
+        <v>0.006899424955986796</v>
       </c>
       <c r="T22">
-        <v>0.001310252637003941</v>
+        <v>0.005283712788887297</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.494014</v>
+        <v>2.851567</v>
       </c>
       <c r="H23">
-        <v>2.988028</v>
+        <v>5.703134</v>
       </c>
       <c r="I23">
-        <v>0.006421889993000722</v>
+        <v>0.03393927295283459</v>
       </c>
       <c r="J23">
-        <v>0.004382227172495565</v>
+        <v>0.02434317547662182</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>14.2888615</v>
+        <v>9.2587045</v>
       </c>
       <c r="N23">
-        <v>28.577723</v>
+        <v>18.517409</v>
       </c>
       <c r="O23">
-        <v>0.04193043493827243</v>
+        <v>0.04649044825164388</v>
       </c>
       <c r="P23">
-        <v>0.0306573804763509</v>
+        <v>0.03309208159505379</v>
       </c>
       <c r="Q23">
-        <v>21.347759125061</v>
+        <v>26.4018162149515</v>
       </c>
       <c r="R23">
-        <v>85.391036500244</v>
+        <v>105.607264859806</v>
       </c>
       <c r="S23">
-        <v>0.0002692726405322596</v>
+        <v>0.001577852012912173</v>
       </c>
       <c r="T23">
-        <v>0.0001343476057609999</v>
+        <v>0.0008055663491550815</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.494014</v>
+        <v>2.851567</v>
       </c>
       <c r="H24">
-        <v>2.988028</v>
+        <v>5.703134</v>
       </c>
       <c r="I24">
-        <v>0.006421889993000722</v>
+        <v>0.03393927295283459</v>
       </c>
       <c r="J24">
-        <v>0.004382227172495565</v>
+        <v>0.02434317547662182</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>35.932115</v>
+        <v>30.61558333333333</v>
       </c>
       <c r="N24">
-        <v>107.796345</v>
+        <v>91.84675</v>
       </c>
       <c r="O24">
-        <v>0.1054422152669073</v>
+        <v>0.1537290873309786</v>
       </c>
       <c r="P24">
-        <v>0.1156408984237473</v>
+        <v>0.1641374419736858</v>
       </c>
       <c r="Q24">
-        <v>53.68308285961</v>
+        <v>87.30238711908333</v>
       </c>
       <c r="R24">
-        <v>322.09849715766</v>
+        <v>523.8143227145</v>
       </c>
       <c r="S24">
-        <v>0.0006771383070623796</v>
+        <v>0.005217453455716227</v>
       </c>
       <c r="T24">
-        <v>0.0005067646873243449</v>
+        <v>0.003995626552249264</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.494014</v>
+        <v>2.851567</v>
       </c>
       <c r="H25">
-        <v>2.988028</v>
+        <v>5.703134</v>
       </c>
       <c r="I25">
-        <v>0.006421889993000722</v>
+        <v>0.03393927295283459</v>
       </c>
       <c r="J25">
-        <v>0.004382227172495565</v>
+        <v>0.02434317547662182</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>113.103447</v>
+        <v>81.49093000000001</v>
       </c>
       <c r="N25">
-        <v>339.310341</v>
+        <v>244.47279</v>
       </c>
       <c r="O25">
-        <v>0.3319002515160389</v>
+        <v>0.4091879014114052</v>
       </c>
       <c r="P25">
-        <v>0.3640026262273368</v>
+        <v>0.4368923057459307</v>
       </c>
       <c r="Q25">
-        <v>168.978133266258</v>
+        <v>232.37684678731</v>
       </c>
       <c r="R25">
-        <v>1013.868799597548</v>
+        <v>1394.26108072386</v>
       </c>
       <c r="S25">
-        <v>0.002131426903885273</v>
+        <v>0.01388753987499925</v>
       </c>
       <c r="T25">
-        <v>0.001595142199513182</v>
+        <v>0.0106353460631591</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>9.386765666666667</v>
+        <v>8.994261</v>
       </c>
       <c r="H26">
-        <v>28.160297</v>
+        <v>26.982783</v>
       </c>
       <c r="I26">
-        <v>0.04034820055328091</v>
+        <v>0.1070494500350281</v>
       </c>
       <c r="J26">
-        <v>0.04129975311441036</v>
+        <v>0.1151729244686532</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>75.87285199999999</v>
+        <v>28.627593</v>
       </c>
       <c r="N26">
-        <v>151.745704</v>
+        <v>57.255186</v>
       </c>
       <c r="O26">
-        <v>0.2226476675113111</v>
+        <v>0.1437468525899733</v>
       </c>
       <c r="P26">
-        <v>0.1627885392821437</v>
+        <v>0.102319567864596</v>
       </c>
       <c r="Q26">
-        <v>712.2006821856813</v>
+        <v>257.484043243773</v>
       </c>
       <c r="R26">
-        <v>4273.204093114087</v>
+        <v>1544.904259462638</v>
       </c>
       <c r="S26">
-        <v>0.008983432741466586</v>
+        <v>0.01538802151402289</v>
       </c>
       <c r="T26">
-        <v>0.006723126482208029</v>
+        <v>0.01178444386133435</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>9.386765666666667</v>
+        <v>8.994261</v>
       </c>
       <c r="H27">
-        <v>28.160297</v>
+        <v>26.982783</v>
       </c>
       <c r="I27">
-        <v>0.04034820055328091</v>
+        <v>0.1070494500350281</v>
       </c>
       <c r="J27">
-        <v>0.04129975311441036</v>
+        <v>0.1151729244686532</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>26.024311</v>
       </c>
       <c r="O27">
-        <v>0.02545597443619208</v>
+        <v>0.04355835757332236</v>
       </c>
       <c r="P27">
-        <v>0.02791815163027104</v>
+        <v>0.04650751209670077</v>
       </c>
       <c r="Q27">
-        <v>81.42803633115189</v>
+        <v>78.02314849305699</v>
       </c>
       <c r="R27">
-        <v>732.852326980367</v>
+        <v>702.2083364375129</v>
       </c>
       <c r="S27">
-        <v>0.00102710276183067</v>
+        <v>0.004662898222653259</v>
       </c>
       <c r="T27">
-        <v>0.001153012769740867</v>
+        <v>0.005356406177938294</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>9.386765666666667</v>
+        <v>8.994261</v>
       </c>
       <c r="H28">
-        <v>28.160297</v>
+        <v>26.982783</v>
       </c>
       <c r="I28">
-        <v>0.04034820055328091</v>
+        <v>0.1070494500350281</v>
       </c>
       <c r="J28">
-        <v>0.04129975311441036</v>
+        <v>0.1151729244686532</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>92.90337233333334</v>
+        <v>40.48525233333334</v>
       </c>
       <c r="N28">
-        <v>278.710117</v>
+        <v>121.455757</v>
       </c>
       <c r="O28">
-        <v>0.2726234563312783</v>
+        <v>0.2032873528426766</v>
       </c>
       <c r="P28">
-        <v>0.2989924039601503</v>
+        <v>0.217051090724033</v>
       </c>
       <c r="Q28">
-        <v>872.0621857360833</v>
+        <v>364.134926136859</v>
       </c>
       <c r="R28">
-        <v>7848.55967162475</v>
+        <v>3277.214335231731</v>
       </c>
       <c r="S28">
-        <v>0.01099986589158304</v>
+        <v>0.02176179932088524</v>
       </c>
       <c r="T28">
-        <v>0.01234831246663826</v>
+        <v>0.02499840887779785</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>9.386765666666667</v>
+        <v>8.994261</v>
       </c>
       <c r="H29">
-        <v>28.160297</v>
+        <v>26.982783</v>
       </c>
       <c r="I29">
-        <v>0.04034820055328091</v>
+        <v>0.1070494500350281</v>
       </c>
       <c r="J29">
-        <v>0.04129975311441036</v>
+        <v>0.1151729244686532</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>14.2888615</v>
+        <v>9.2587045</v>
       </c>
       <c r="N29">
-        <v>28.577723</v>
+        <v>18.517409</v>
       </c>
       <c r="O29">
-        <v>0.04193043493827243</v>
+        <v>0.04649044825164388</v>
       </c>
       <c r="P29">
-        <v>0.0306573804763509</v>
+        <v>0.03309208159505379</v>
       </c>
       <c r="Q29">
-        <v>134.1261945439552</v>
+        <v>83.2752047948745</v>
       </c>
       <c r="R29">
-        <v>804.7571672637309</v>
+        <v>499.651228769247</v>
       </c>
       <c r="S29">
-        <v>0.001691817598175713</v>
+        <v>0.00497677691722041</v>
       </c>
       <c r="T29">
-        <v>0.001266142244807836</v>
+        <v>0.003811311814057639</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>9.386765666666667</v>
+        <v>8.994261</v>
       </c>
       <c r="H30">
-        <v>28.160297</v>
+        <v>26.982783</v>
       </c>
       <c r="I30">
-        <v>0.04034820055328091</v>
+        <v>0.1070494500350281</v>
       </c>
       <c r="J30">
-        <v>0.04129975311441036</v>
+        <v>0.1151729244686532</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>35.932115</v>
+        <v>30.61558333333333</v>
       </c>
       <c r="N30">
-        <v>107.796345</v>
+        <v>91.84675</v>
       </c>
       <c r="O30">
-        <v>0.1054422152669073</v>
+        <v>0.1537290873309786</v>
       </c>
       <c r="P30">
-        <v>0.1156408984237473</v>
+        <v>0.1641374419736858</v>
       </c>
       <c r="Q30">
-        <v>337.2863434127184</v>
+        <v>275.36454716725</v>
       </c>
       <c r="R30">
-        <v>3035.577090714465</v>
+        <v>2478.28092450525</v>
       </c>
       <c r="S30">
-        <v>0.004254403648371392</v>
+        <v>0.01645661425316806</v>
       </c>
       <c r="T30">
-        <v>0.004775940554829368</v>
+        <v>0.01890418920691326</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>9.386765666666667</v>
+        <v>8.994261</v>
       </c>
       <c r="H31">
-        <v>28.160297</v>
+        <v>26.982783</v>
       </c>
       <c r="I31">
-        <v>0.04034820055328091</v>
+        <v>0.1070494500350281</v>
       </c>
       <c r="J31">
-        <v>0.04129975311441036</v>
+        <v>0.1151729244686532</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>113.103447</v>
+        <v>81.49093000000001</v>
       </c>
       <c r="N31">
-        <v>339.310341</v>
+        <v>244.47279</v>
       </c>
       <c r="O31">
-        <v>0.3319002515160389</v>
+        <v>0.4091879014114052</v>
       </c>
       <c r="P31">
-        <v>0.3640026262273368</v>
+        <v>0.4368923057459307</v>
       </c>
       <c r="Q31">
-        <v>1061.675553081253</v>
+        <v>732.9506935527301</v>
       </c>
       <c r="R31">
-        <v>9555.079977731277</v>
+        <v>6596.55624197457</v>
       </c>
       <c r="S31">
-        <v>0.01339157791185351</v>
+        <v>0.04380333980707822</v>
       </c>
       <c r="T31">
-        <v>0.015033218596186</v>
+        <v>0.05031816453061182</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>134.7221676666667</v>
+        <v>32.42970233333333</v>
       </c>
       <c r="H32">
-        <v>404.166503</v>
+        <v>97.289107</v>
       </c>
       <c r="I32">
-        <v>0.5790915884147887</v>
+        <v>0.3859774360098067</v>
       </c>
       <c r="J32">
-        <v>0.5927486059900077</v>
+        <v>0.415267430795916</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>75.87285199999999</v>
+        <v>28.627593</v>
       </c>
       <c r="N32">
-        <v>151.745704</v>
+        <v>57.255186</v>
       </c>
       <c r="O32">
-        <v>0.2226476675113111</v>
+        <v>0.1437468525899733</v>
       </c>
       <c r="P32">
-        <v>0.1627885392821437</v>
+        <v>0.102319567864596</v>
       </c>
       <c r="Q32">
-        <v>10221.75508849219</v>
+        <v>928.384319509817</v>
       </c>
       <c r="R32">
-        <v>61330.53053095311</v>
+        <v>5570.305917058902</v>
       </c>
       <c r="S32">
-        <v>0.1289333914359729</v>
+        <v>0.05548304159715754</v>
       </c>
       <c r="T32">
-        <v>0.0964926797306403</v>
+        <v>0.04248998406727917</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>134.7221676666667</v>
+        <v>32.42970233333333</v>
       </c>
       <c r="H33">
-        <v>404.166503</v>
+        <v>97.289107</v>
       </c>
       <c r="I33">
-        <v>0.5790915884147887</v>
+        <v>0.3859774360098067</v>
       </c>
       <c r="J33">
-        <v>0.5927486059900077</v>
+        <v>0.415267430795916</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>26.024311</v>
       </c>
       <c r="O33">
-        <v>0.02545597443619208</v>
+        <v>0.04355835757332236</v>
       </c>
       <c r="P33">
-        <v>0.02791815163027104</v>
+        <v>0.04650751209670077</v>
       </c>
       <c r="Q33">
-        <v>1168.683863317159</v>
+        <v>281.3202197200308</v>
       </c>
       <c r="R33">
-        <v>10518.15476985443</v>
+        <v>2531.881977480277</v>
       </c>
       <c r="S33">
-        <v>0.01474134067090073</v>
+        <v>0.01681254317294931</v>
       </c>
       <c r="T33">
-        <v>0.01654844546066082</v>
+        <v>0.01931305506110692</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>134.7221676666667</v>
+        <v>32.42970233333333</v>
       </c>
       <c r="H34">
-        <v>404.166503</v>
+        <v>97.289107</v>
       </c>
       <c r="I34">
-        <v>0.5790915884147887</v>
+        <v>0.3859774360098067</v>
       </c>
       <c r="J34">
-        <v>0.5927486059900077</v>
+        <v>0.415267430795916</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>92.90337233333334</v>
+        <v>40.48525233333334</v>
       </c>
       <c r="N34">
-        <v>278.710117</v>
+        <v>121.455757</v>
       </c>
       <c r="O34">
-        <v>0.2726234563312783</v>
+        <v>0.2032873528426766</v>
       </c>
       <c r="P34">
-        <v>0.2989924039601503</v>
+        <v>0.217051090724033</v>
       </c>
       <c r="Q34">
-        <v>12516.1437042901</v>
+        <v>1312.924682059889</v>
       </c>
       <c r="R34">
-        <v>112645.2933386109</v>
+        <v>11816.322138539</v>
       </c>
       <c r="S34">
-        <v>0.1578739503660097</v>
+        <v>0.07846433122343721</v>
       </c>
       <c r="T34">
-        <v>0.1772273306489803</v>
+        <v>0.09013424879642047</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>134.7221676666667</v>
+        <v>32.42970233333333</v>
       </c>
       <c r="H35">
-        <v>404.166503</v>
+        <v>97.289107</v>
       </c>
       <c r="I35">
-        <v>0.5790915884147887</v>
+        <v>0.3859774360098067</v>
       </c>
       <c r="J35">
-        <v>0.5927486059900077</v>
+        <v>0.415267430795916</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>14.2888615</v>
+        <v>9.2587045</v>
       </c>
       <c r="N35">
-        <v>28.577723</v>
+        <v>18.517409</v>
       </c>
       <c r="O35">
-        <v>0.04193043493827243</v>
+        <v>0.04649044825164388</v>
       </c>
       <c r="P35">
-        <v>0.0306573804763509</v>
+        <v>0.03309208159505379</v>
       </c>
       <c r="Q35">
-        <v>1925.026394768778</v>
+        <v>300.2570309272938</v>
       </c>
       <c r="R35">
-        <v>11550.15836861267</v>
+        <v>1801.542185563763</v>
       </c>
       <c r="S35">
-        <v>0.02428156217132714</v>
+        <v>0.01794426401511611</v>
       </c>
       <c r="T35">
-        <v>0.01817211954066227</v>
+        <v>0.01374206370366681</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>134.7221676666667</v>
+        <v>32.42970233333333</v>
       </c>
       <c r="H36">
-        <v>404.166503</v>
+        <v>97.289107</v>
       </c>
       <c r="I36">
-        <v>0.5790915884147887</v>
+        <v>0.3859774360098067</v>
       </c>
       <c r="J36">
-        <v>0.5927486059900077</v>
+        <v>0.415267430795916</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>35.932115</v>
+        <v>30.61558333333333</v>
       </c>
       <c r="N36">
-        <v>107.796345</v>
+        <v>91.84675</v>
       </c>
       <c r="O36">
-        <v>0.1054422152669073</v>
+        <v>0.1537290873309786</v>
       </c>
       <c r="P36">
-        <v>0.1156408984237473</v>
+        <v>0.1641374419736858</v>
       </c>
       <c r="Q36">
-        <v>4840.852421647949</v>
+        <v>992.854254261361</v>
       </c>
       <c r="R36">
-        <v>43567.67179483154</v>
+        <v>8935.68828835225</v>
       </c>
       <c r="S36">
-        <v>0.06106069992488741</v>
+        <v>0.05933595896813876</v>
       </c>
       <c r="T36">
-        <v>0.06854598133610827</v>
+        <v>0.06816093382582623</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>134.7221676666667</v>
+        <v>32.42970233333333</v>
       </c>
       <c r="H37">
-        <v>404.166503</v>
+        <v>97.289107</v>
       </c>
       <c r="I37">
-        <v>0.5790915884147887</v>
+        <v>0.3859774360098067</v>
       </c>
       <c r="J37">
-        <v>0.5927486059900077</v>
+        <v>0.415267430795916</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>113.103447</v>
+        <v>81.49093000000001</v>
       </c>
       <c r="N37">
-        <v>339.310341</v>
+        <v>244.47279</v>
       </c>
       <c r="O37">
-        <v>0.3319002515160389</v>
+        <v>0.4091879014114052</v>
       </c>
       <c r="P37">
-        <v>0.3640026262273368</v>
+        <v>0.4368923057459307</v>
       </c>
       <c r="Q37">
-        <v>15237.54155041195</v>
+        <v>2642.726602766503</v>
       </c>
       <c r="R37">
-        <v>137137.8739537075</v>
+        <v>23784.53942489853</v>
       </c>
       <c r="S37">
-        <v>0.1922006438456909</v>
+        <v>0.1579372970330078</v>
       </c>
       <c r="T37">
-        <v>0.2157620492729557</v>
+        <v>0.1814271453416165</v>
       </c>
     </row>
   </sheetData>
